--- a/biology/Botanique/Chrysomyxa_ledi_var._rhododendri/Chrysomyxa_ledi_var._rhododendri.xlsx
+++ b/biology/Botanique/Chrysomyxa_ledi_var._rhododendri/Chrysomyxa_ledi_var._rhododendri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysomyxa ledi var. rhododendri est une variété de Chrysomyxa ledi (en), une espèce de champignons basidiomycètes de la famille des Coleosporiaceae, pathogènes des plantes.
 </t>
@@ -511,9 +523,11 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété détermine une rouille qui hiberne sur les feuilles de rhododendron, et adopte donc sa répartition géographique. Au printemps et en été, il change d'hôte[3] et infecte les arbres du genre Picea. On le retrouve alors par exemple sur l'épicéa commun, sur lequel il provoque la rouille vésiculeuse, caractérisée par le jaunissement des jeunes aiguilles formées au cours de l'année. Celles-ci tombent en hiver et laissent les rameaux défoliés, mais n'empêche pas la repousse des bourgeons au printemps suivant[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété détermine une rouille qui hiberne sur les feuilles de rhododendron, et adopte donc sa répartition géographique. Au printemps et en été, il change d'hôte et infecte les arbres du genre Picea. On le retrouve alors par exemple sur l'épicéa commun, sur lequel il provoque la rouille vésiculeuse, caractérisée par le jaunissement des jeunes aiguilles formées au cours de l'année. Celles-ci tombent en hiver et laissent les rameaux défoliés, mais n'empêche pas la repousse des bourgeons au printemps suivant.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce fréquente dans les montagnes d'Europe. En Suisse, on le trouve à une altitude variant entre 1000 et 2 000 m, en particulier aux Grisons et au Tessin[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce fréquente dans les montagnes d'Europe. En Suisse, on le trouve à une altitude variant entre 1000 et 2 000 m, en particulier aux Grisons et au Tessin.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Uredo rhododendri DC.
 Chrysomyxa rhododendri (DC.) de Bary</t>
